--- a/dataanalysis/data/predictions/1600/07181529_1531.xlsx
+++ b/dataanalysis/data/predictions/1600/07181529_1531.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="152">
   <si>
     <t>序号</t>
   </si>
@@ -97,6 +97,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-07-18</t>
   </si>
   <si>
@@ -467,12 +470,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -830,13 +827,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA77"/>
+  <dimension ref="A1:AB77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -918,19 +915,22 @@
       <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>300006</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>1.61</v>
@@ -948,7 +948,7 @@
         <v>82808.58</v>
       </c>
       <c r="J2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K2">
         <v>4</v>
@@ -968,8 +968,23 @@
       <c r="P2">
         <v>0.6</v>
       </c>
+      <c r="Q2">
+        <v>-3.16</v>
+      </c>
+      <c r="R2">
+        <v>5.1</v>
+      </c>
+      <c r="S2">
+        <v>0.79</v>
+      </c>
       <c r="V2" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -977,22 +992,25 @@
       <c r="Z2">
         <v>1.793820261955261</v>
       </c>
-      <c r="AA2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>300019</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>-0.98</v>
@@ -1010,7 +1028,7 @@
         <v>65453.99</v>
       </c>
       <c r="J3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K3">
         <v>8</v>
@@ -1030,8 +1048,23 @@
       <c r="P3">
         <v>-0.73</v>
       </c>
+      <c r="Q3">
+        <v>3.93</v>
+      </c>
+      <c r="R3">
+        <v>23.22</v>
+      </c>
+      <c r="S3">
+        <v>4.83</v>
+      </c>
       <c r="V3" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -1039,22 +1072,25 @@
       <c r="Z3">
         <v>3.374992609024048</v>
       </c>
-      <c r="AA3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>300046</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>1.45</v>
@@ -1072,7 +1108,7 @@
         <v>158445.89</v>
       </c>
       <c r="J4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K4">
         <v>4</v>
@@ -1092,8 +1128,23 @@
       <c r="P4">
         <v>0.21</v>
       </c>
+      <c r="Q4">
+        <v>-3.04</v>
+      </c>
+      <c r="R4">
+        <v>43.46</v>
+      </c>
+      <c r="S4">
+        <v>0.21</v>
+      </c>
       <c r="V4" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -1101,22 +1152,25 @@
       <c r="Z4">
         <v>2.351567029953003</v>
       </c>
-      <c r="AA4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>300066</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>3.33</v>
@@ -1134,7 +1188,7 @@
         <v>171985.13</v>
       </c>
       <c r="J5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K5">
         <v>6</v>
@@ -1154,8 +1208,23 @@
       <c r="P5">
         <v>-0.86</v>
       </c>
+      <c r="Q5">
+        <v>4.3</v>
+      </c>
+      <c r="R5">
+        <v>6.88</v>
+      </c>
+      <c r="S5">
+        <v>5.68</v>
+      </c>
       <c r="V5" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1163,22 +1232,25 @@
       <c r="Z5">
         <v>3.751761198043823</v>
       </c>
-      <c r="AA5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>300127</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>2.26</v>
@@ -1196,7 +1268,7 @@
         <v>69887.44</v>
       </c>
       <c r="J6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1216,8 +1288,23 @@
       <c r="P6">
         <v>0.44</v>
       </c>
+      <c r="Q6">
+        <v>0.03</v>
+      </c>
+      <c r="R6">
+        <v>30.46</v>
+      </c>
+      <c r="S6">
+        <v>2.04</v>
+      </c>
       <c r="V6" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1225,22 +1312,25 @@
       <c r="Z6">
         <v>3.238273859024048</v>
       </c>
-      <c r="AA6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>300130</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>0.21</v>
@@ -1258,7 +1348,7 @@
         <v>123039.32</v>
       </c>
       <c r="J7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K7">
         <v>24</v>
@@ -1278,8 +1368,23 @@
       <c r="P7">
         <v>0.01</v>
       </c>
+      <c r="Q7">
+        <v>-3.64</v>
+      </c>
+      <c r="R7">
+        <v>32.64</v>
+      </c>
+      <c r="S7">
+        <v>-0.15</v>
+      </c>
       <c r="V7" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1287,22 +1392,25 @@
       <c r="Z7">
         <v>4.711116790771484</v>
       </c>
-      <c r="AA7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>300180</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>-2.45</v>
@@ -1320,7 +1428,7 @@
         <v>147104.59</v>
       </c>
       <c r="J8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K8">
         <v>23</v>
@@ -1340,8 +1448,23 @@
       <c r="P8">
         <v>-1.46</v>
       </c>
+      <c r="Q8">
+        <v>-0.76</v>
+      </c>
+      <c r="R8">
+        <v>9.18</v>
+      </c>
+      <c r="S8">
+        <v>0.11</v>
+      </c>
       <c r="V8" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1349,22 +1472,25 @@
       <c r="Z8">
         <v>4.913854122161865</v>
       </c>
-      <c r="AA8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>300195</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9">
         <v>-3.2</v>
@@ -1382,7 +1508,7 @@
         <v>45080.84</v>
       </c>
       <c r="J9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K9">
         <v>5</v>
@@ -1402,8 +1528,23 @@
       <c r="P9">
         <v>-1.49</v>
       </c>
+      <c r="Q9">
+        <v>2.33</v>
+      </c>
+      <c r="R9">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="S9">
+        <v>2.45</v>
+      </c>
       <c r="V9" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
       </c>
       <c r="Y9">
         <v>1</v>
@@ -1411,22 +1552,25 @@
       <c r="Z9">
         <v>3.729631185531616</v>
       </c>
-      <c r="AA9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>300199</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>-1.73</v>
@@ -1444,7 +1588,7 @@
         <v>154939.94</v>
       </c>
       <c r="J10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K10">
         <v>13</v>
@@ -1464,8 +1608,23 @@
       <c r="P10">
         <v>-0.76</v>
       </c>
+      <c r="Q10">
+        <v>-2.49</v>
+      </c>
+      <c r="R10">
+        <v>19.24</v>
+      </c>
+      <c r="S10">
+        <v>-0.21</v>
+      </c>
       <c r="V10" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1473,22 +1632,25 @@
       <c r="Z10">
         <v>0.8379567265510559</v>
       </c>
-      <c r="AA10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>300226</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11">
         <v>-4.54</v>
@@ -1506,7 +1668,7 @@
         <v>171643.3</v>
       </c>
       <c r="J11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1526,8 +1688,23 @@
       <c r="P11">
         <v>-1.12</v>
       </c>
+      <c r="Q11">
+        <v>-1.21</v>
+      </c>
+      <c r="R11">
+        <v>29.2</v>
+      </c>
+      <c r="S11">
+        <v>0.72</v>
+      </c>
       <c r="V11" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1535,22 +1712,25 @@
       <c r="Z11">
         <v>3.842771291732788</v>
       </c>
-      <c r="AA11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>300283</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12">
         <v>20.03</v>
@@ -1568,7 +1748,7 @@
         <v>73972.33</v>
       </c>
       <c r="J12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1588,8 +1768,23 @@
       <c r="P12">
         <v>4.46</v>
       </c>
+      <c r="Q12">
+        <v>-5.91</v>
+      </c>
+      <c r="R12">
+        <v>8.35</v>
+      </c>
+      <c r="S12">
+        <v>-3.24</v>
+      </c>
       <c r="V12" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
       </c>
       <c r="Y12">
         <v>1</v>
@@ -1597,22 +1792,25 @@
       <c r="Z12">
         <v>16.87643814086914</v>
       </c>
-      <c r="AA12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="AA12">
+        <v>1</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>300291</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E13">
         <v>3.83</v>
@@ -1630,7 +1828,7 @@
         <v>56225.61</v>
       </c>
       <c r="J13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1650,8 +1848,23 @@
       <c r="P13">
         <v>0.6</v>
       </c>
+      <c r="Q13">
+        <v>-0.96</v>
+      </c>
+      <c r="R13">
+        <v>6.25</v>
+      </c>
+      <c r="S13">
+        <v>0.16</v>
+      </c>
       <c r="V13" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1659,22 +1872,25 @@
       <c r="Z13">
         <v>0.05180925130844116</v>
       </c>
-      <c r="AA13" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>300308</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14">
         <v>2.13</v>
@@ -1692,7 +1908,7 @@
         <v>1129876.68</v>
       </c>
       <c r="J14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K14">
         <v>4</v>
@@ -1712,8 +1928,23 @@
       <c r="P14">
         <v>0</v>
       </c>
+      <c r="Q14">
+        <v>4.06</v>
+      </c>
+      <c r="R14">
+        <v>188.4</v>
+      </c>
+      <c r="S14">
+        <v>4.31</v>
+      </c>
       <c r="V14" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1721,22 +1952,25 @@
       <c r="Z14">
         <v>1.86173403263092</v>
       </c>
-      <c r="AA14" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>300348</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E15">
         <v>-0.05</v>
@@ -1754,7 +1988,7 @@
         <v>198974.27</v>
       </c>
       <c r="J15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K15">
         <v>9</v>
@@ -1774,8 +2008,23 @@
       <c r="P15">
         <v>0.72</v>
       </c>
+      <c r="Q15">
+        <v>-3.11</v>
+      </c>
+      <c r="R15">
+        <v>18.82</v>
+      </c>
+      <c r="S15">
+        <v>-0.74</v>
+      </c>
       <c r="V15" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1783,22 +2032,25 @@
       <c r="Z15">
         <v>3.412870645523071</v>
       </c>
-      <c r="AA15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>300363</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E16">
         <v>-0.3</v>
@@ -1816,7 +2068,7 @@
         <v>53385.66</v>
       </c>
       <c r="J16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1836,8 +2088,23 @@
       <c r="P16">
         <v>-0.18</v>
       </c>
+      <c r="Q16">
+        <v>0.2</v>
+      </c>
+      <c r="R16">
+        <v>20.1</v>
+      </c>
+      <c r="S16">
+        <v>0.45</v>
+      </c>
       <c r="V16" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
       </c>
       <c r="Y16">
         <v>1</v>
@@ -1845,22 +2112,25 @@
       <c r="Z16">
         <v>5.174868106842041</v>
       </c>
-      <c r="AA16" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17">
         <v>300414</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17">
         <v>1.06</v>
@@ -1878,7 +2148,7 @@
         <v>53410.3</v>
       </c>
       <c r="J17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17">
         <v>5</v>
@@ -1898,8 +2168,23 @@
       <c r="P17">
         <v>-0.4</v>
       </c>
+      <c r="Q17">
+        <v>2.4</v>
+      </c>
+      <c r="R17">
+        <v>13.98</v>
+      </c>
+      <c r="S17">
+        <v>4.88</v>
+      </c>
       <c r="V17" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
       </c>
       <c r="Y17">
         <v>1</v>
@@ -1907,22 +2192,25 @@
       <c r="Z17">
         <v>-0.4058513939380646</v>
       </c>
-      <c r="AA17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18">
         <v>300434</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E18">
         <v>-0.83</v>
@@ -1940,7 +2228,7 @@
         <v>29643.03</v>
       </c>
       <c r="J18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1960,8 +2248,23 @@
       <c r="P18">
         <v>-0.18</v>
       </c>
+      <c r="Q18">
+        <v>0.75</v>
+      </c>
+      <c r="R18">
+        <v>10.91</v>
+      </c>
+      <c r="S18">
+        <v>1.96</v>
+      </c>
       <c r="V18" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
       </c>
       <c r="Y18">
         <v>1</v>
@@ -1969,22 +2272,25 @@
       <c r="Z18">
         <v>5.284046649932861</v>
       </c>
-      <c r="AA18" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19">
         <v>300436</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E19">
         <v>-1.91</v>
@@ -2002,7 +2308,7 @@
         <v>130623.01</v>
       </c>
       <c r="J19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K19">
         <v>12</v>
@@ -2022,8 +2328,23 @@
       <c r="P19">
         <v>-0.32</v>
       </c>
+      <c r="Q19">
+        <v>4.66</v>
+      </c>
+      <c r="R19">
+        <v>76.56999999999999</v>
+      </c>
+      <c r="S19">
+        <v>9.07</v>
+      </c>
       <c r="V19" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2031,22 +2352,25 @@
       <c r="Z19">
         <v>1.470442771911621</v>
       </c>
-      <c r="AA19" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20">
         <v>300469</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E20">
         <v>-0.8</v>
@@ -2064,7 +2388,7 @@
         <v>87759.17999999999</v>
       </c>
       <c r="J20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K20">
         <v>4</v>
@@ -2084,8 +2408,23 @@
       <c r="P20">
         <v>-0.47</v>
       </c>
+      <c r="Q20">
+        <v>-0.22</v>
+      </c>
+      <c r="R20">
+        <v>47.1</v>
+      </c>
+      <c r="S20">
+        <v>2.75</v>
+      </c>
       <c r="V20" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2093,22 +2432,25 @@
       <c r="Z20">
         <v>2.480427026748657</v>
       </c>
-      <c r="AA20" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27">
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21">
         <v>300485</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E21">
         <v>7.73</v>
@@ -2126,7 +2468,7 @@
         <v>68932.84</v>
       </c>
       <c r="J21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -2146,8 +2488,23 @@
       <c r="P21">
         <v>1.23</v>
       </c>
+      <c r="Q21">
+        <v>3.86</v>
+      </c>
+      <c r="R21">
+        <v>15.43</v>
+      </c>
+      <c r="S21">
+        <v>4.4</v>
+      </c>
       <c r="V21" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2155,22 +2512,25 @@
       <c r="Z21">
         <v>1.378266453742981</v>
       </c>
-      <c r="AA21" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27">
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22">
         <v>300502</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E22">
         <v>-0.64</v>
@@ -2188,7 +2548,7 @@
         <v>1197458.74</v>
       </c>
       <c r="J22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K22">
         <v>18</v>
@@ -2208,8 +2568,23 @@
       <c r="P22">
         <v>-0.17</v>
       </c>
+      <c r="Q22">
+        <v>-2.23</v>
+      </c>
+      <c r="R22">
+        <v>186.6</v>
+      </c>
+      <c r="S22">
+        <v>2.35</v>
+      </c>
       <c r="V22" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2217,22 +2592,25 @@
       <c r="Z22">
         <v>0.1862953007221222</v>
       </c>
-      <c r="AA22" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27">
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23">
         <v>300505</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -2250,7 +2628,7 @@
         <v>57186.16</v>
       </c>
       <c r="J23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -2270,8 +2648,23 @@
       <c r="P23">
         <v>0.78</v>
       </c>
+      <c r="Q23">
+        <v>0.2</v>
+      </c>
+      <c r="R23">
+        <v>20.07</v>
+      </c>
+      <c r="S23">
+        <v>0.7</v>
+      </c>
       <c r="V23" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2279,22 +2672,25 @@
       <c r="Z23">
         <v>5.618196964263916</v>
       </c>
-      <c r="AA23" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24">
         <v>300522</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E24">
         <v>-0.89</v>
@@ -2312,7 +2708,7 @@
         <v>61871.91</v>
       </c>
       <c r="J24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K24">
         <v>4</v>
@@ -2332,8 +2728,23 @@
       <c r="P24">
         <v>-0.48</v>
       </c>
+      <c r="Q24">
+        <v>-0.06</v>
+      </c>
+      <c r="R24">
+        <v>17.21</v>
+      </c>
+      <c r="S24">
+        <v>2.75</v>
+      </c>
       <c r="V24" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2341,22 +2752,25 @@
       <c r="Z24">
         <v>6.347335338592529</v>
       </c>
-      <c r="AA24" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27">
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25">
         <v>300527</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E25">
         <v>-0.98</v>
@@ -2374,7 +2788,7 @@
         <v>67410.53</v>
       </c>
       <c r="J25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K25">
         <v>14</v>
@@ -2394,8 +2808,23 @@
       <c r="P25">
         <v>-0.22</v>
       </c>
+      <c r="Q25">
+        <v>-0.63</v>
+      </c>
+      <c r="R25">
+        <v>11.26</v>
+      </c>
+      <c r="S25">
+        <v>1.08</v>
+      </c>
       <c r="V25" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2403,22 +2832,25 @@
       <c r="Z25">
         <v>4.803952693939209</v>
       </c>
-      <c r="AA25" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27">
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26">
         <v>300531</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E26">
         <v>-0.92</v>
@@ -2436,7 +2868,7 @@
         <v>31801.99</v>
       </c>
       <c r="J26" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K26">
         <v>23</v>
@@ -2456,8 +2888,23 @@
       <c r="P26">
         <v>-0.39</v>
       </c>
+      <c r="Q26">
+        <v>-1.37</v>
+      </c>
+      <c r="R26">
+        <v>20.5</v>
+      </c>
+      <c r="S26">
+        <v>0.15</v>
+      </c>
       <c r="V26" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
       </c>
       <c r="Y26">
         <v>1</v>
@@ -2465,22 +2912,25 @@
       <c r="Z26">
         <v>5.915875911712646</v>
       </c>
-      <c r="AA26" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27">
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27">
         <v>300533</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E27">
         <v>-4.42</v>
@@ -2498,7 +2948,7 @@
         <v>90355</v>
       </c>
       <c r="J27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K27">
         <v>18</v>
@@ -2518,8 +2968,23 @@
       <c r="P27">
         <v>-1.86</v>
       </c>
+      <c r="Q27">
+        <v>2.83</v>
+      </c>
+      <c r="R27">
+        <v>37.43</v>
+      </c>
+      <c r="S27">
+        <v>2.94</v>
+      </c>
       <c r="V27" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2527,22 +2992,25 @@
       <c r="Z27">
         <v>7.081670761108398</v>
       </c>
-      <c r="AA27" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27">
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28">
         <v>300537</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E28">
         <v>-1.17</v>
@@ -2560,7 +3028,7 @@
         <v>40417.36</v>
       </c>
       <c r="J28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K28">
         <v>15</v>
@@ -2580,8 +3048,23 @@
       <c r="P28">
         <v>-1.21</v>
       </c>
+      <c r="Q28">
+        <v>0.24</v>
+      </c>
+      <c r="R28">
+        <v>25.96</v>
+      </c>
+      <c r="S28">
+        <v>2.24</v>
+      </c>
       <c r="V28" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
       </c>
       <c r="Y28">
         <v>1</v>
@@ -2589,22 +3072,25 @@
       <c r="Z28">
         <v>4.339979648590088</v>
       </c>
-      <c r="AA28" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27">
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C29">
         <v>300541</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E29">
         <v>-3.36</v>
@@ -2622,7 +3108,7 @@
         <v>75167.28999999999</v>
       </c>
       <c r="J29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2642,8 +3128,23 @@
       <c r="P29">
         <v>-2.57</v>
       </c>
+      <c r="Q29">
+        <v>-0.19</v>
+      </c>
+      <c r="R29">
+        <v>16.15</v>
+      </c>
+      <c r="S29">
+        <v>0.12</v>
+      </c>
       <c r="V29" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -2651,22 +3152,25 @@
       <c r="Z29">
         <v>0.8311166763305664</v>
       </c>
-      <c r="AA29" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27">
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30">
         <v>300548</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E30">
         <v>0.26</v>
@@ -2684,7 +3188,7 @@
         <v>253226.5</v>
       </c>
       <c r="J30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K30">
         <v>4</v>
@@ -2704,8 +3208,23 @@
       <c r="P30">
         <v>-0.33</v>
       </c>
+      <c r="Q30">
+        <v>-0.88</v>
+      </c>
+      <c r="R30">
+        <v>88.54000000000001</v>
+      </c>
+      <c r="S30">
+        <v>2.69</v>
+      </c>
       <c r="V30" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -2713,22 +3232,25 @@
       <c r="Z30">
         <v>2.823201894760132</v>
       </c>
-      <c r="AA30" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27">
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C31">
         <v>300551</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E31">
         <v>-1.68</v>
@@ -2746,7 +3268,7 @@
         <v>36480.24</v>
       </c>
       <c r="J31" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K31">
         <v>4</v>
@@ -2766,8 +3288,23 @@
       <c r="P31">
         <v>-0.9399999999999999</v>
       </c>
+      <c r="Q31">
+        <v>1.11</v>
+      </c>
+      <c r="R31">
+        <v>11.93</v>
+      </c>
+      <c r="S31">
+        <v>1.62</v>
+      </c>
       <c r="V31" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -2775,22 +3312,25 @@
       <c r="Z31">
         <v>3.648301601409912</v>
       </c>
-      <c r="AA31" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27">
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C32">
         <v>300581</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E32">
         <v>0.83</v>
@@ -2808,7 +3348,7 @@
         <v>183458.79</v>
       </c>
       <c r="J32" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2828,8 +3368,23 @@
       <c r="P32">
         <v>-0.64</v>
       </c>
+      <c r="Q32">
+        <v>1.2</v>
+      </c>
+      <c r="R32">
+        <v>21.3</v>
+      </c>
+      <c r="S32">
+        <v>2.65</v>
+      </c>
       <c r="V32" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
       </c>
       <c r="Y32">
         <v>1</v>
@@ -2837,22 +3392,25 @@
       <c r="Z32">
         <v>7.04002571105957</v>
       </c>
-      <c r="AA32" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27">
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C33">
         <v>300591</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E33">
         <v>-2.48</v>
@@ -2870,7 +3428,7 @@
         <v>111312.12</v>
       </c>
       <c r="J33" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K33">
         <v>19</v>
@@ -2890,8 +3448,23 @@
       <c r="P33">
         <v>-1.21</v>
       </c>
+      <c r="Q33">
+        <v>1.64</v>
+      </c>
+      <c r="R33">
+        <v>12.77</v>
+      </c>
+      <c r="S33">
+        <v>4.93</v>
+      </c>
       <c r="V33" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
       </c>
       <c r="Y33">
         <v>1</v>
@@ -2899,22 +3472,25 @@
       <c r="Z33">
         <v>6.5186448097229</v>
       </c>
-      <c r="AA33" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27">
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C34">
         <v>300600</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E34">
         <v>-4.16</v>
@@ -2932,7 +3508,7 @@
         <v>59167.94</v>
       </c>
       <c r="J34" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K34">
         <v>16</v>
@@ -2952,8 +3528,23 @@
       <c r="P34">
         <v>-1.47</v>
       </c>
+      <c r="Q34">
+        <v>-0.38</v>
+      </c>
+      <c r="R34">
+        <v>15.96</v>
+      </c>
+      <c r="S34">
+        <v>0.44</v>
+      </c>
       <c r="V34" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
       </c>
       <c r="Y34">
         <v>1</v>
@@ -2961,22 +3552,25 @@
       <c r="Z34">
         <v>4.233458042144775</v>
       </c>
-      <c r="AA34" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27">
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C35">
         <v>300631</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E35">
         <v>20.01</v>
@@ -2994,7 +3588,7 @@
         <v>91340.81</v>
       </c>
       <c r="J35" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K35">
         <v>5</v>
@@ -3014,8 +3608,23 @@
       <c r="P35">
         <v>3.93</v>
       </c>
+      <c r="Q35">
+        <v>2.73</v>
+      </c>
+      <c r="R35">
+        <v>36.38</v>
+      </c>
+      <c r="S35">
+        <v>8.109999999999999</v>
+      </c>
       <c r="V35" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="W35">
+        <v>1</v>
+      </c>
+      <c r="X35">
+        <v>1</v>
       </c>
       <c r="Y35">
         <v>1</v>
@@ -3023,22 +3632,25 @@
       <c r="Z35">
         <v>16.46471214294434</v>
       </c>
-      <c r="AA35" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27">
+      <c r="AA35">
+        <v>1</v>
+      </c>
+      <c r="AB35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C36">
         <v>300644</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E36">
         <v>0.78</v>
@@ -3056,7 +3668,7 @@
         <v>124195.58</v>
       </c>
       <c r="J36" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -3076,8 +3688,23 @@
       <c r="P36">
         <v>-3.18</v>
       </c>
+      <c r="Q36">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="R36">
+        <v>38.96</v>
+      </c>
+      <c r="S36">
+        <v>15.95</v>
+      </c>
       <c r="V36" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W36">
+        <v>1</v>
+      </c>
+      <c r="X36">
+        <v>1</v>
       </c>
       <c r="Y36">
         <v>1</v>
@@ -3085,22 +3712,25 @@
       <c r="Z36">
         <v>6.004395008087158</v>
       </c>
-      <c r="AA36" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27">
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C37">
         <v>300703</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E37">
         <v>-1.89</v>
@@ -3118,7 +3748,7 @@
         <v>36906.99</v>
       </c>
       <c r="J37" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K37">
         <v>6</v>
@@ -3138,8 +3768,23 @@
       <c r="P37">
         <v>-0.6</v>
       </c>
+      <c r="Q37">
+        <v>2.87</v>
+      </c>
+      <c r="R37">
+        <v>26.6</v>
+      </c>
+      <c r="S37">
+        <v>4.72</v>
+      </c>
       <c r="V37" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
       </c>
       <c r="Y37">
         <v>0</v>
@@ -3147,22 +3792,25 @@
       <c r="Z37">
         <v>3.607743978500366</v>
       </c>
-      <c r="AA37" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27">
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C38">
         <v>300748</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E38">
         <v>3.97</v>
@@ -3180,7 +3828,7 @@
         <v>280217.06</v>
       </c>
       <c r="J38" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K38">
         <v>6</v>
@@ -3200,8 +3848,23 @@
       <c r="P38">
         <v>0.21</v>
       </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>27.69</v>
+      </c>
+      <c r="S38">
+        <v>3.59</v>
+      </c>
       <c r="V38" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
       </c>
       <c r="Y38">
         <v>0</v>
@@ -3209,22 +3872,25 @@
       <c r="Z38">
         <v>9.869267463684082</v>
       </c>
-      <c r="AA38" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27">
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C39">
         <v>300803</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E39">
         <v>-1.13</v>
@@ -3242,7 +3908,7 @@
         <v>321701.91</v>
       </c>
       <c r="J39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K39">
         <v>16</v>
@@ -3262,8 +3928,23 @@
       <c r="P39">
         <v>-0.34</v>
       </c>
+      <c r="Q39">
+        <v>-2.86</v>
+      </c>
+      <c r="R39">
+        <v>86.48</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
       <c r="V39" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
       </c>
       <c r="Y39">
         <v>0</v>
@@ -3271,22 +3952,25 @@
       <c r="Z39">
         <v>3.017372369766235</v>
       </c>
-      <c r="AA39" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27">
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C40">
         <v>300830</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E40">
         <v>-3.21</v>
@@ -3304,7 +3988,7 @@
         <v>119686</v>
       </c>
       <c r="J40" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -3324,8 +4008,23 @@
       <c r="P40">
         <v>-4.97</v>
       </c>
+      <c r="Q40">
+        <v>-3.05</v>
+      </c>
+      <c r="R40">
+        <v>11.02</v>
+      </c>
+      <c r="S40">
+        <v>-1.17</v>
+      </c>
       <c r="V40" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
       </c>
       <c r="Y40">
         <v>0</v>
@@ -3333,22 +4032,25 @@
       <c r="Z40">
         <v>5.213771820068359</v>
       </c>
-      <c r="AA40" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27">
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C41">
         <v>300835</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E41">
         <v>-1.07</v>
@@ -3366,7 +4068,7 @@
         <v>58383.89</v>
       </c>
       <c r="J41" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -3386,8 +4088,23 @@
       <c r="P41">
         <v>0.14</v>
       </c>
+      <c r="Q41">
+        <v>1.19</v>
+      </c>
+      <c r="R41">
+        <v>48.9</v>
+      </c>
+      <c r="S41">
+        <v>3.62</v>
+      </c>
       <c r="V41" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
       </c>
       <c r="Y41">
         <v>0</v>
@@ -3395,22 +4112,25 @@
       <c r="Z41">
         <v>3.583937644958496</v>
       </c>
-      <c r="AA41" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27">
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C42">
         <v>300839</v>
       </c>
       <c r="D42" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E42">
         <v>-2.93</v>
@@ -3428,7 +4148,7 @@
         <v>34031</v>
       </c>
       <c r="J42" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -3448,8 +4168,23 @@
       <c r="P42">
         <v>-0.64</v>
       </c>
+      <c r="Q42">
+        <v>1.82</v>
+      </c>
+      <c r="R42">
+        <v>15.9</v>
+      </c>
+      <c r="S42">
+        <v>11.58</v>
+      </c>
       <c r="V42" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>1</v>
       </c>
       <c r="Y42">
         <v>0</v>
@@ -3457,22 +4192,25 @@
       <c r="Z42">
         <v>5.038322925567627</v>
       </c>
-      <c r="AA42" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27">
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C43">
         <v>300872</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E43">
         <v>-2.11</v>
@@ -3490,7 +4228,7 @@
         <v>117964.72</v>
       </c>
       <c r="J43" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K43">
         <v>25</v>
@@ -3510,8 +4248,23 @@
       <c r="P43">
         <v>-1.59</v>
       </c>
+      <c r="Q43">
+        <v>0.66</v>
+      </c>
+      <c r="R43">
+        <v>25.26</v>
+      </c>
+      <c r="S43">
+        <v>4.68</v>
+      </c>
       <c r="V43" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
       </c>
       <c r="Y43">
         <v>0</v>
@@ -3519,22 +4272,25 @@
       <c r="Z43">
         <v>6.520309448242188</v>
       </c>
-      <c r="AA43" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27">
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C44">
         <v>300897</v>
       </c>
       <c r="D44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E44">
         <v>4.73</v>
@@ -3552,7 +4308,7 @@
         <v>38504.37</v>
       </c>
       <c r="J44" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K44">
         <v>4</v>
@@ -3572,8 +4328,23 @@
       <c r="P44">
         <v>-0.73</v>
       </c>
+      <c r="Q44">
+        <v>-3.29</v>
+      </c>
+      <c r="R44">
+        <v>27.27</v>
+      </c>
+      <c r="S44">
+        <v>0.89</v>
+      </c>
       <c r="V44" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
       </c>
       <c r="Y44">
         <v>0</v>
@@ -3581,22 +4352,25 @@
       <c r="Z44">
         <v>1.804861783981323</v>
       </c>
-      <c r="AA44" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27">
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C45">
         <v>300903</v>
       </c>
       <c r="D45" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E45">
         <v>4.04</v>
@@ -3614,7 +4388,7 @@
         <v>93455.10000000001</v>
       </c>
       <c r="J45" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -3634,8 +4408,23 @@
       <c r="P45">
         <v>-0.64</v>
       </c>
+      <c r="Q45">
+        <v>-0.71</v>
+      </c>
+      <c r="R45">
+        <v>11.6</v>
+      </c>
+      <c r="S45">
+        <v>2.38</v>
+      </c>
       <c r="V45" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
       </c>
       <c r="Y45">
         <v>0</v>
@@ -3643,22 +4432,25 @@
       <c r="Z45">
         <v>2.743534326553345</v>
       </c>
-      <c r="AA45" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27">
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C46">
         <v>300922</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E46">
         <v>10.97</v>
@@ -3676,7 +4468,7 @@
         <v>74326.07000000001</v>
       </c>
       <c r="J46" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K46">
         <v>1</v>
@@ -3696,8 +4488,23 @@
       <c r="P46">
         <v>0.91</v>
       </c>
+      <c r="Q46">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="R46">
+        <v>30.81</v>
+      </c>
+      <c r="S46">
+        <v>0.85</v>
+      </c>
       <c r="V46" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
       </c>
       <c r="Y46">
         <v>1</v>
@@ -3705,22 +4512,25 @@
       <c r="Z46">
         <v>6.37799596786499</v>
       </c>
-      <c r="AA46" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27">
+      <c r="AA46">
+        <v>1</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C47">
         <v>300950</v>
       </c>
       <c r="D47" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E47">
         <v>-0.44</v>
@@ -3738,7 +4548,7 @@
         <v>90478.33</v>
       </c>
       <c r="J47" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K47">
         <v>4</v>
@@ -3758,8 +4568,23 @@
       <c r="P47">
         <v>0.12</v>
       </c>
+      <c r="Q47">
+        <v>-6.4</v>
+      </c>
+      <c r="R47">
+        <v>32.76</v>
+      </c>
+      <c r="S47">
+        <v>-2.93</v>
+      </c>
       <c r="V47" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
       </c>
       <c r="Y47">
         <v>0</v>
@@ -3767,22 +4592,25 @@
       <c r="Z47">
         <v>3.182728052139282</v>
       </c>
-      <c r="AA47" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27">
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C48">
         <v>300969</v>
       </c>
       <c r="D48" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E48">
         <v>0.26</v>
@@ -3800,7 +4628,7 @@
         <v>21766.73</v>
       </c>
       <c r="J48" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K48">
         <v>1</v>
@@ -3820,8 +4648,23 @@
       <c r="P48">
         <v>-0.61</v>
       </c>
+      <c r="Q48">
+        <v>-4.68</v>
+      </c>
+      <c r="R48">
+        <v>82.22</v>
+      </c>
+      <c r="S48">
+        <v>1.78</v>
+      </c>
       <c r="V48" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
       </c>
       <c r="Y48">
         <v>0</v>
@@ -3829,22 +4672,25 @@
       <c r="Z48">
         <v>3.043356418609619</v>
       </c>
-      <c r="AA48" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27">
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C49">
         <v>301012</v>
       </c>
       <c r="D49" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E49">
         <v>-7.76</v>
@@ -3862,7 +4708,7 @@
         <v>96945.64</v>
       </c>
       <c r="J49" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K49">
         <v>2</v>
@@ -3882,8 +4728,23 @@
       <c r="P49">
         <v>-0.71</v>
       </c>
+      <c r="Q49">
+        <v>2.99</v>
+      </c>
+      <c r="R49">
+        <v>24.47</v>
+      </c>
+      <c r="S49">
+        <v>4.44</v>
+      </c>
       <c r="V49" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
       </c>
       <c r="Y49">
         <v>0</v>
@@ -3891,22 +4752,25 @@
       <c r="Z49">
         <v>0.09296535700559616</v>
       </c>
-      <c r="AA49" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27">
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C50">
         <v>301132</v>
       </c>
       <c r="D50" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E50">
         <v>-1.65</v>
@@ -3924,7 +4788,7 @@
         <v>120543.76</v>
       </c>
       <c r="J50" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K50">
         <v>2</v>
@@ -3944,8 +4808,23 @@
       <c r="P50">
         <v>-7.01</v>
       </c>
+      <c r="Q50">
+        <v>-2.91</v>
+      </c>
+      <c r="R50">
+        <v>39.18</v>
+      </c>
+      <c r="S50">
+        <v>-0.1</v>
+      </c>
       <c r="V50" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
       </c>
       <c r="Y50">
         <v>0</v>
@@ -3953,22 +4832,25 @@
       <c r="Z50">
         <v>5.87489652633667</v>
       </c>
-      <c r="AA50" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27">
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C51">
         <v>301141</v>
       </c>
       <c r="D51" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E51">
         <v>1.93</v>
@@ -3986,7 +4868,7 @@
         <v>136777.84</v>
       </c>
       <c r="J51" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K51">
         <v>16</v>
@@ -4006,8 +4888,23 @@
       <c r="P51">
         <v>-1.1</v>
       </c>
+      <c r="Q51">
+        <v>-3.14</v>
+      </c>
+      <c r="R51">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="S51">
+        <v>1.41</v>
+      </c>
       <c r="V51" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
       </c>
       <c r="Y51">
         <v>0</v>
@@ -4015,22 +4912,25 @@
       <c r="Z51">
         <v>5.394073486328125</v>
       </c>
-      <c r="AA51" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27">
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C52">
         <v>301165</v>
       </c>
       <c r="D52" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E52">
         <v>-1.31</v>
@@ -4048,7 +4948,7 @@
         <v>78326.8</v>
       </c>
       <c r="J52" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K52">
         <v>3</v>
@@ -4068,8 +4968,23 @@
       <c r="P52">
         <v>-0.08</v>
       </c>
+      <c r="Q52">
+        <v>-1.44</v>
+      </c>
+      <c r="R52">
+        <v>63.22</v>
+      </c>
+      <c r="S52">
+        <v>-0.05</v>
+      </c>
       <c r="V52" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
       </c>
       <c r="Y52">
         <v>0</v>
@@ -4077,22 +4992,25 @@
       <c r="Z52">
         <v>3.089521169662476</v>
       </c>
-      <c r="AA52" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27">
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C53">
         <v>301176</v>
       </c>
       <c r="D53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E53">
         <v>-4.75</v>
@@ -4110,7 +5028,7 @@
         <v>62986.7</v>
       </c>
       <c r="J53" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K53">
         <v>21</v>
@@ -4130,8 +5048,23 @@
       <c r="P53">
         <v>-2.87</v>
       </c>
+      <c r="Q53">
+        <v>1.58</v>
+      </c>
+      <c r="R53">
+        <v>34.47</v>
+      </c>
+      <c r="S53">
+        <v>2.93</v>
+      </c>
       <c r="V53" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
       </c>
       <c r="Y53">
         <v>1</v>
@@ -4139,22 +5072,25 @@
       <c r="Z53">
         <v>14.04799747467041</v>
       </c>
-      <c r="AA53" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27">
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C54">
         <v>301183</v>
       </c>
       <c r="D54" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E54">
         <v>-2.58</v>
@@ -4172,7 +5108,7 @@
         <v>85660.53</v>
       </c>
       <c r="J54" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K54">
         <v>3</v>
@@ -4192,8 +5128,23 @@
       <c r="P54">
         <v>-1.96</v>
       </c>
+      <c r="Q54">
+        <v>-1.46</v>
+      </c>
+      <c r="R54">
+        <v>75.94</v>
+      </c>
+      <c r="S54">
+        <v>0.46</v>
+      </c>
       <c r="V54" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
       </c>
       <c r="Y54">
         <v>0</v>
@@ -4201,22 +5152,25 @@
       <c r="Z54">
         <v>5.106338500976562</v>
       </c>
-      <c r="AA54" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27">
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C55">
         <v>301217</v>
       </c>
       <c r="D55" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E55">
         <v>3.16</v>
@@ -4234,7 +5188,7 @@
         <v>196814</v>
       </c>
       <c r="J55" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K55">
         <v>10</v>
@@ -4254,8 +5208,23 @@
       <c r="P55">
         <v>-1.69</v>
       </c>
+      <c r="Q55">
+        <v>-1.81</v>
+      </c>
+      <c r="R55">
+        <v>21.98</v>
+      </c>
+      <c r="S55">
+        <v>2.14</v>
+      </c>
       <c r="V55" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
       </c>
       <c r="Y55">
         <v>0</v>
@@ -4263,22 +5232,25 @@
       <c r="Z55">
         <v>5.206922054290771</v>
       </c>
-      <c r="AA55" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27">
+      <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C56">
         <v>301265</v>
       </c>
       <c r="D56" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E56">
         <v>15.05</v>
@@ -4296,7 +5268,7 @@
         <v>58655.28</v>
       </c>
       <c r="J56" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K56">
         <v>1</v>
@@ -4316,8 +5288,23 @@
       <c r="P56">
         <v>0.49</v>
       </c>
+      <c r="Q56">
+        <v>-5.03</v>
+      </c>
+      <c r="R56">
+        <v>13.23</v>
+      </c>
+      <c r="S56">
+        <v>-2.22</v>
+      </c>
       <c r="V56" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
       </c>
       <c r="Y56">
         <v>1</v>
@@ -4325,22 +5312,25 @@
       <c r="Z56">
         <v>7.76443338394165</v>
       </c>
-      <c r="AA56" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27">
+      <c r="AA56">
+        <v>1</v>
+      </c>
+      <c r="AB56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C57">
         <v>301312</v>
       </c>
       <c r="D57" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E57">
         <v>-1.1</v>
@@ -4358,7 +5348,7 @@
         <v>29409.35</v>
       </c>
       <c r="J57" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K57">
         <v>2</v>
@@ -4378,8 +5368,23 @@
       <c r="P57">
         <v>-1.59</v>
       </c>
+      <c r="Q57">
+        <v>2.88</v>
+      </c>
+      <c r="R57">
+        <v>44.3</v>
+      </c>
+      <c r="S57">
+        <v>2.88</v>
+      </c>
       <c r="V57" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
       </c>
       <c r="Y57">
         <v>0</v>
@@ -4387,22 +5392,25 @@
       <c r="Z57">
         <v>2.786304950714111</v>
       </c>
-      <c r="AA57" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27">
+      <c r="AA57">
+        <v>0</v>
+      </c>
+      <c r="AB57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C58">
         <v>301345</v>
       </c>
       <c r="D58" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E58">
         <v>-2.04</v>
@@ -4420,7 +5428,7 @@
         <v>40650.44</v>
       </c>
       <c r="J58" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K58">
         <v>14</v>
@@ -4440,8 +5448,23 @@
       <c r="P58">
         <v>-0.77</v>
       </c>
+      <c r="Q58">
+        <v>-1.77</v>
+      </c>
+      <c r="R58">
+        <v>138.67</v>
+      </c>
+      <c r="S58">
+        <v>-0.09</v>
+      </c>
       <c r="V58" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
       </c>
       <c r="Y58">
         <v>0</v>
@@ -4449,22 +5472,25 @@
       <c r="Z58">
         <v>5.363286972045898</v>
       </c>
-      <c r="AA58" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="59" spans="1:27">
+      <c r="AA58">
+        <v>0</v>
+      </c>
+      <c r="AB58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C59">
         <v>301357</v>
       </c>
       <c r="D59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E59">
         <v>-2.18</v>
@@ -4482,7 +5508,7 @@
         <v>86372.14</v>
       </c>
       <c r="J59" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K59">
         <v>3</v>
@@ -4502,8 +5528,23 @@
       <c r="P59">
         <v>-2.28</v>
       </c>
+      <c r="Q59">
+        <v>-0.71</v>
+      </c>
+      <c r="R59">
+        <v>85.56999999999999</v>
+      </c>
+      <c r="S59">
+        <v>2.34</v>
+      </c>
       <c r="V59" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
       </c>
       <c r="Y59">
         <v>0</v>
@@ -4511,22 +5552,25 @@
       <c r="Z59">
         <v>0.9701964259147644</v>
       </c>
-      <c r="AA59" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27">
+      <c r="AA59">
+        <v>0</v>
+      </c>
+      <c r="AB59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C60">
         <v>301377</v>
       </c>
       <c r="D60" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E60">
         <v>2.51</v>
@@ -4544,7 +5588,7 @@
         <v>68614.88</v>
       </c>
       <c r="J60" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K60">
         <v>4</v>
@@ -4564,8 +5608,23 @@
       <c r="P60">
         <v>-0.73</v>
       </c>
+      <c r="Q60">
+        <v>0.04</v>
+      </c>
+      <c r="R60">
+        <v>45.6</v>
+      </c>
+      <c r="S60">
+        <v>1.38</v>
+      </c>
       <c r="V60" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
       </c>
       <c r="Y60">
         <v>0</v>
@@ -4573,22 +5632,25 @@
       <c r="Z60">
         <v>6.782221794128418</v>
       </c>
-      <c r="AA60" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="61" spans="1:27">
+      <c r="AA60">
+        <v>0</v>
+      </c>
+      <c r="AB60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C61">
         <v>301388</v>
       </c>
       <c r="D61" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E61">
         <v>4.99</v>
@@ -4606,7 +5668,7 @@
         <v>56986.92</v>
       </c>
       <c r="J61" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K61">
         <v>10</v>
@@ -4626,8 +5688,23 @@
       <c r="P61">
         <v>1.48</v>
       </c>
+      <c r="Q61">
+        <v>0.05</v>
+      </c>
+      <c r="R61">
+        <v>40.44</v>
+      </c>
+      <c r="S61">
+        <v>0.57</v>
+      </c>
       <c r="V61" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
       </c>
       <c r="Y61">
         <v>0</v>
@@ -4635,22 +5712,25 @@
       <c r="Z61">
         <v>0.4324106574058533</v>
       </c>
-      <c r="AA61" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27">
+      <c r="AA61">
+        <v>0</v>
+      </c>
+      <c r="AB61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C62">
         <v>301389</v>
       </c>
       <c r="D62" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E62">
         <v>0.27</v>
@@ -4668,7 +5748,7 @@
         <v>83110.52</v>
       </c>
       <c r="J62" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K62">
         <v>9</v>
@@ -4688,8 +5768,23 @@
       <c r="P62">
         <v>0.79</v>
       </c>
+      <c r="Q62">
+        <v>2.02</v>
+      </c>
+      <c r="R62">
+        <v>34.18</v>
+      </c>
+      <c r="S62">
+        <v>3.2</v>
+      </c>
       <c r="V62" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
       </c>
       <c r="Y62">
         <v>0</v>
@@ -4697,22 +5792,25 @@
       <c r="Z62">
         <v>3.087324619293213</v>
       </c>
-      <c r="AA62" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="63" spans="1:27">
+      <c r="AA62">
+        <v>0</v>
+      </c>
+      <c r="AB62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C63">
         <v>301421</v>
       </c>
       <c r="D63" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E63">
         <v>3.51</v>
@@ -4730,7 +5828,7 @@
         <v>63209.75</v>
       </c>
       <c r="J63" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K63">
         <v>20</v>
@@ -4750,8 +5848,23 @@
       <c r="P63">
         <v>0.13</v>
       </c>
+      <c r="Q63">
+        <v>-1.47</v>
+      </c>
+      <c r="R63">
+        <v>75.95999999999999</v>
+      </c>
+      <c r="S63">
+        <v>-0.08</v>
+      </c>
       <c r="V63" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>0</v>
       </c>
       <c r="Y63">
         <v>0</v>
@@ -4759,22 +5872,25 @@
       <c r="Z63">
         <v>-0.4617503583431244</v>
       </c>
-      <c r="AA63" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="64" spans="1:27">
+      <c r="AA63">
+        <v>0</v>
+      </c>
+      <c r="AB63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C64">
         <v>301511</v>
       </c>
       <c r="D64" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E64">
         <v>-3.49</v>
@@ -4792,7 +5908,7 @@
         <v>120145.87</v>
       </c>
       <c r="J64" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K64">
         <v>19</v>
@@ -4812,8 +5928,23 @@
       <c r="P64">
         <v>0.83</v>
       </c>
+      <c r="Q64">
+        <v>13.16</v>
+      </c>
+      <c r="R64">
+        <v>29.36</v>
+      </c>
+      <c r="S64">
+        <v>15.36</v>
+      </c>
       <c r="V64" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>1</v>
       </c>
       <c r="Y64">
         <v>0</v>
@@ -4821,22 +5952,25 @@
       <c r="Z64">
         <v>5.091879367828369</v>
       </c>
-      <c r="AA64" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="65" spans="1:27">
+      <c r="AA64">
+        <v>0</v>
+      </c>
+      <c r="AB64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C65">
         <v>301526</v>
       </c>
       <c r="D65" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E65">
         <v>-1</v>
@@ -4854,7 +5988,7 @@
         <v>76624.23</v>
       </c>
       <c r="J65" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K65">
         <v>9</v>
@@ -4874,8 +6008,23 @@
       <c r="P65">
         <v>-0.37</v>
       </c>
+      <c r="Q65">
+        <v>2.23</v>
+      </c>
+      <c r="R65">
+        <v>5.09</v>
+      </c>
+      <c r="S65">
+        <v>3.25</v>
+      </c>
       <c r="V65" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
       </c>
       <c r="Y65">
         <v>0</v>
@@ -4883,22 +6032,25 @@
       <c r="Z65">
         <v>4.172684192657471</v>
       </c>
-      <c r="AA65" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="66" spans="1:27">
+      <c r="AA65">
+        <v>0</v>
+      </c>
+      <c r="AB65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C66">
         <v>688062</v>
       </c>
       <c r="D66" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E66">
         <v>-2.76</v>
@@ -4916,7 +6068,7 @@
         <v>101815.75</v>
       </c>
       <c r="J66" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K66">
         <v>12</v>
@@ -4936,8 +6088,23 @@
       <c r="P66">
         <v>-2.3</v>
       </c>
+      <c r="Q66">
+        <v>-1.1</v>
+      </c>
+      <c r="R66">
+        <v>36.56</v>
+      </c>
+      <c r="S66">
+        <v>0.72</v>
+      </c>
       <c r="V66" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
       </c>
       <c r="Y66">
         <v>0</v>
@@ -4945,22 +6112,25 @@
       <c r="Z66">
         <v>-0.03672037273645401</v>
       </c>
-      <c r="AA66" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="67" spans="1:27">
+      <c r="AA66">
+        <v>0</v>
+      </c>
+      <c r="AB66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C67">
         <v>688117</v>
       </c>
       <c r="D67" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E67">
         <v>7.76</v>
@@ -4978,7 +6148,7 @@
         <v>56620.25</v>
       </c>
       <c r="J67" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K67">
         <v>4</v>
@@ -4998,8 +6168,23 @@
       <c r="P67">
         <v>0.51</v>
       </c>
+      <c r="Q67">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="R67">
+        <v>44.19</v>
+      </c>
+      <c r="S67">
+        <v>4.05</v>
+      </c>
       <c r="V67" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>0</v>
       </c>
       <c r="Y67">
         <v>1</v>
@@ -5007,22 +6192,25 @@
       <c r="Z67">
         <v>4.720290660858154</v>
       </c>
-      <c r="AA67" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="68" spans="1:27">
+      <c r="AA67">
+        <v>0</v>
+      </c>
+      <c r="AB67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C68">
         <v>688202</v>
       </c>
       <c r="D68" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E68">
         <v>1.8</v>
@@ -5040,7 +6228,7 @@
         <v>83997.21000000001</v>
       </c>
       <c r="J68" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K68">
         <v>9</v>
@@ -5060,8 +6248,23 @@
       <c r="P68">
         <v>0.07000000000000001</v>
       </c>
+      <c r="Q68">
+        <v>-1.62</v>
+      </c>
+      <c r="R68">
+        <v>59.55</v>
+      </c>
+      <c r="S68">
+        <v>-0.42</v>
+      </c>
       <c r="V68" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
       </c>
       <c r="Y68">
         <v>0</v>
@@ -5069,22 +6272,25 @@
       <c r="Z68">
         <v>-1.148205041885376</v>
       </c>
-      <c r="AA68" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="69" spans="1:27">
+      <c r="AA68">
+        <v>0</v>
+      </c>
+      <c r="AB68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C69">
         <v>688221</v>
       </c>
       <c r="D69" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E69">
         <v>4.34</v>
@@ -5102,7 +6308,7 @@
         <v>62752.81</v>
       </c>
       <c r="J69" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K69">
         <v>10</v>
@@ -5122,8 +6328,23 @@
       <c r="P69">
         <v>-0.51</v>
       </c>
+      <c r="Q69">
+        <v>3.79</v>
+      </c>
+      <c r="R69">
+        <v>24.67</v>
+      </c>
+      <c r="S69">
+        <v>15.33</v>
+      </c>
       <c r="V69" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>1</v>
       </c>
       <c r="Y69">
         <v>0</v>
@@ -5131,22 +6352,25 @@
       <c r="Z69">
         <v>6.213786602020264</v>
       </c>
-      <c r="AA69" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="70" spans="1:27">
+      <c r="AA69">
+        <v>0</v>
+      </c>
+      <c r="AB69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C70">
         <v>688222</v>
       </c>
       <c r="D70" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E70">
         <v>3.63</v>
@@ -5164,7 +6388,7 @@
         <v>155562.34</v>
       </c>
       <c r="J70" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K70">
         <v>1</v>
@@ -5184,8 +6408,23 @@
       <c r="P70">
         <v>-1.16</v>
       </c>
+      <c r="Q70">
+        <v>6.38</v>
+      </c>
+      <c r="R70">
+        <v>24.2</v>
+      </c>
+      <c r="S70">
+        <v>8.81</v>
+      </c>
       <c r="V70" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>1</v>
       </c>
       <c r="Y70">
         <v>0</v>
@@ -5193,22 +6432,25 @@
       <c r="Z70">
         <v>3.924557447433472</v>
       </c>
-      <c r="AA70" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="71" spans="1:27">
+      <c r="AA70">
+        <v>0</v>
+      </c>
+      <c r="AB70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C71">
         <v>688313</v>
       </c>
       <c r="D71" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E71">
         <v>2.43</v>
@@ -5226,7 +6468,7 @@
         <v>207014.17</v>
       </c>
       <c r="J71" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K71">
         <v>23</v>
@@ -5246,8 +6488,23 @@
       <c r="P71">
         <v>0.13</v>
       </c>
+      <c r="Q71">
+        <v>-1.03</v>
+      </c>
+      <c r="R71">
+        <v>54.62</v>
+      </c>
+      <c r="S71">
+        <v>2.09</v>
+      </c>
       <c r="V71" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
       </c>
       <c r="Y71">
         <v>0</v>
@@ -5255,22 +6512,25 @@
       <c r="Z71">
         <v>4.991584300994873</v>
       </c>
-      <c r="AA71" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="72" spans="1:27">
+      <c r="AA71">
+        <v>0</v>
+      </c>
+      <c r="AB71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C72">
         <v>688317</v>
       </c>
       <c r="D72" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E72">
         <v>-7.07</v>
@@ -5288,7 +6548,7 @@
         <v>34806.43</v>
       </c>
       <c r="J72" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K72">
         <v>4</v>
@@ -5308,8 +6568,23 @@
       <c r="P72">
         <v>-0.76</v>
       </c>
+      <c r="Q72">
+        <v>2.64</v>
+      </c>
+      <c r="R72">
+        <v>23.8</v>
+      </c>
+      <c r="S72">
+        <v>4.62</v>
+      </c>
       <c r="V72" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>0</v>
       </c>
       <c r="Y72">
         <v>0</v>
@@ -5317,22 +6592,25 @@
       <c r="Z72">
         <v>2.311801671981812</v>
       </c>
-      <c r="AA72" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="73" spans="1:27">
+      <c r="AA72">
+        <v>0</v>
+      </c>
+      <c r="AB72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C73">
         <v>688321</v>
       </c>
       <c r="D73" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E73">
         <v>2.71</v>
@@ -5350,7 +6628,7 @@
         <v>113228.26</v>
       </c>
       <c r="J73" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K73">
         <v>14</v>
@@ -5370,8 +6648,23 @@
       <c r="P73">
         <v>-0.46</v>
       </c>
+      <c r="Q73">
+        <v>-0.47</v>
+      </c>
+      <c r="R73">
+        <v>37.23</v>
+      </c>
+      <c r="S73">
+        <v>3.56</v>
+      </c>
       <c r="V73" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>0</v>
       </c>
       <c r="Y73">
         <v>0</v>
@@ -5379,22 +6672,25 @@
       <c r="Z73">
         <v>2.105408430099487</v>
       </c>
-      <c r="AA73" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="74" spans="1:27">
+      <c r="AA73">
+        <v>0</v>
+      </c>
+      <c r="AB73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C74">
         <v>688360</v>
       </c>
       <c r="D74" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E74">
         <v>14.74</v>
@@ -5412,7 +6708,7 @@
         <v>67706.53</v>
       </c>
       <c r="J74" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K74">
         <v>1</v>
@@ -5432,8 +6728,23 @@
       <c r="P74">
         <v>0.88</v>
       </c>
+      <c r="Q74">
+        <v>-1.31</v>
+      </c>
+      <c r="R74">
+        <v>25.3</v>
+      </c>
+      <c r="S74">
+        <v>3.52</v>
+      </c>
       <c r="V74" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
       </c>
       <c r="Y74">
         <v>1</v>
@@ -5441,22 +6752,25 @@
       <c r="Z74">
         <v>3.723317861557007</v>
       </c>
-      <c r="AA74" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="75" spans="1:27">
+      <c r="AA74">
+        <v>1</v>
+      </c>
+      <c r="AB74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C75">
         <v>688499</v>
       </c>
       <c r="D75" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E75">
         <v>11.69</v>
@@ -5474,7 +6788,7 @@
         <v>111939.57</v>
       </c>
       <c r="J75" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K75">
         <v>24</v>
@@ -5494,8 +6808,23 @@
       <c r="P75">
         <v>-0.23</v>
       </c>
+      <c r="Q75">
+        <v>1.6</v>
+      </c>
+      <c r="R75">
+        <v>50.88</v>
+      </c>
+      <c r="S75">
+        <v>4.61</v>
+      </c>
       <c r="V75" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
       </c>
       <c r="Y75">
         <v>0</v>
@@ -5503,22 +6832,25 @@
       <c r="Z75">
         <v>5.344800472259521</v>
       </c>
-      <c r="AA75" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="76" spans="1:27">
+      <c r="AA75">
+        <v>0</v>
+      </c>
+      <c r="AB75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C76">
         <v>688553</v>
       </c>
       <c r="D76" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E76">
         <v>8.970000000000001</v>
@@ -5536,7 +6868,7 @@
         <v>69247.48</v>
       </c>
       <c r="J76" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K76">
         <v>2</v>
@@ -5556,8 +6888,23 @@
       <c r="P76">
         <v>0.06</v>
       </c>
+      <c r="Q76">
+        <v>1.16</v>
+      </c>
+      <c r="R76">
+        <v>22.72</v>
+      </c>
+      <c r="S76">
+        <v>1.66</v>
+      </c>
       <c r="V76" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
       </c>
       <c r="Y76">
         <v>0</v>
@@ -5565,22 +6912,25 @@
       <c r="Z76">
         <v>6.489862442016602</v>
       </c>
-      <c r="AA76" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="77" spans="1:27">
+      <c r="AA76">
+        <v>0</v>
+      </c>
+      <c r="AB76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C77">
         <v>688668</v>
       </c>
       <c r="D77" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E77">
         <v>-0.77</v>
@@ -5598,7 +6948,7 @@
         <v>60350.69</v>
       </c>
       <c r="J77" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K77">
         <v>2</v>
@@ -5618,8 +6968,23 @@
       <c r="P77">
         <v>-0.3</v>
       </c>
+      <c r="Q77">
+        <v>10.11</v>
+      </c>
+      <c r="R77">
+        <v>79</v>
+      </c>
+      <c r="S77">
+        <v>11.53</v>
+      </c>
       <c r="V77" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W77">
+        <v>1</v>
+      </c>
+      <c r="X77">
+        <v>1</v>
       </c>
       <c r="Y77">
         <v>1</v>
@@ -5627,8 +6992,11 @@
       <c r="Z77">
         <v>9.043354034423828</v>
       </c>
-      <c r="AA77" t="s">
-        <v>151</v>
+      <c r="AA77">
+        <v>0</v>
+      </c>
+      <c r="AB77">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
